--- a/inst/extdata/Metabolitos.xlsx
+++ b/inst/extdata/Metabolitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose\OneDrive\Escritorio\Cuatri 3\TFM\Annotation_Met\MetaboliteDbi\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EC0377-3CC8-4635-9ABD-A5D8CD05628D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6723139C-F0AB-4002-AC5C-A872BB645FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20666,8 +20666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1034" sqref="B1034"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="T279" sqref="T279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
